--- a/biology/Médecine/1569_en_santé_et_médecine/1569_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1569_en_santé_et_médecine/1569_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1569_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1569_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1569 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1569_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1569_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Girolamo Mercuriale (1530-1606) rédige De arte gymnastica « premier traité de gymnastique de notre histoire[1] ».
-Andrea Cesalpino (1524-1603 fait imprimer à Florence ses Quaestionum peripateticarum libri quinque[2], très important ouvrage où, avant Harvey, l'auteur décrit la circulation du sang[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Girolamo Mercuriale (1530-1606) rédige De arte gymnastica « premier traité de gymnastique de notre histoire ».
+Andrea Cesalpino (1524-1603 fait imprimer à Florence ses Quaestionum peripateticarum libri quinque, très important ouvrage où, avant Harvey, l'auteur décrit la circulation du sang.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1569_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1569_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2 novembre : Epifanio Ferdinando (mort en 1638), médecin italien[4].
-15 août : Jakob Zwinger (mort en 1610), médecin et philologue suisse[5].
-Jacques de Marque (mort en 1622), chirurgien français, auteur, entre autres ouvrages, d'un traité sur les os publié à Paris en 1609 et intitulé Paradoxe ou Traité médullaire, auquel est amplement prouvé, contre l'opinion [du] vulgaire, que la moelle n'est pas la nourriture des os[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 novembre : Epifanio Ferdinando (mort en 1638), médecin italien.
+15 août : Jakob Zwinger (mort en 1610), médecin et philologue suisse.
+Jacques de Marque (mort en 1622), chirurgien français, auteur, entre autres ouvrages, d'un traité sur les os publié à Paris en 1609 et intitulé Paradoxe ou Traité médullaire, auquel est amplement prouvé, contre l'opinion [du] vulgaire, que la moelle n'est pas la nourriture des os.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1569_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1569_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">26 mai : Guido Guidi (né en 1509), médecin italien, médecin du roi François Ier et premier des lecteurs en médecine au Collège royal[7].
-Honoré Castellan (né en 1511), médecin du roi Charles IX, gendre du médecin Louis Laurens (1511-1574), et grand-père d'André Du Laurens (1558-1609), également médecin[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">26 mai : Guido Guidi (né en 1509), médecin italien, médecin du roi François Ier et premier des lecteurs en médecine au Collège royal.
+Honoré Castellan (né en 1511), médecin du roi Charles IX, gendre du médecin Louis Laurens (1511-1574), et grand-père d'André Du Laurens (1558-1609), également médecin.
 </t>
         </is>
       </c>
